--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2375.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2375.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8868909730852027</v>
+        <v>0.962336003780365</v>
       </c>
       <c r="B1">
-        <v>1.507009581159485</v>
+        <v>1.898081064224243</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.893202304840088</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.230626583099365</v>
       </c>
       <c r="E1">
-        <v>1.173696208859204</v>
+        <v>0.5241938233375549</v>
       </c>
     </row>
   </sheetData>
